--- a/Input/maintenance.xlsx
+++ b/Input/maintenance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bav\OneDrive - Geological survey of Denmark and Greenland\Code\AWS_Processing\Input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_E1F183C480E4B29D764DF8CEBCC1A3946B28E581" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E208A6EE-DA22-4B93-BF65-43FC118B68B7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="10005" windowHeight="7620" tabRatio="932" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="932" firstSheet="3" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CP1" sheetId="1" r:id="rId1"/>
@@ -27,13 +33,22 @@
     <sheet name="NGRIP" sheetId="17" r:id="rId18"/>
     <sheet name="IMAU" sheetId="21" r:id="rId19"/>
     <sheet name="JAR" sheetId="22" r:id="rId20"/>
+    <sheet name="PROMICE" sheetId="23" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="28">
   <si>
     <t>Date (dd-mm-yyyy HH:MM)</t>
   </si>
@@ -122,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,9 +277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,30 +521,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>34799</v>
       </c>
@@ -616,7 +666,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>35739.25</v>
       </c>
@@ -633,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>35945</v>
       </c>
@@ -644,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-345</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-330</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>41</v>
@@ -677,24 +727,24 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>36017</v>
       </c>
       <c r="C5">
-        <v>-345</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>36305.625</v>
       </c>
@@ -705,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-440</v>
+        <v>-100</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-410</v>
+        <v>-110</v>
       </c>
       <c r="G6">
         <v>99</v>
@@ -768,7 +818,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>36622</v>
       </c>
@@ -806,7 +856,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37039</v>
       </c>
@@ -838,7 +888,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37384</v>
       </c>
@@ -876,7 +926,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37730.5</v>
       </c>
@@ -920,7 +970,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>38457.582638888889</v>
       </c>
@@ -967,7 +1017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>38864.582638888889</v>
       </c>
@@ -984,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>40309.582638888889</v>
       </c>
@@ -1031,7 +1081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>41761.707638888889</v>
       </c>
@@ -1045,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>401188</v>
       </c>
@@ -1068,7 +1118,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>401548.625</v>
       </c>
@@ -1086,6 +1136,40 @@
       </c>
       <c r="F16">
         <v>-160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>42491</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-1470</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>42880</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-250</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>
@@ -1095,14 +1179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1204,16 +1288,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1331,18 +1415,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1796,16 +1880,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1893,19 +1977,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:X4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>35521.875</v>
       </c>
@@ -2023,7 +2107,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>35904.875</v>
       </c>
@@ -2058,7 +2142,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>37047.875</v>
       </c>
@@ -2102,7 +2186,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>37742</v>
       </c>
@@ -2119,7 +2203,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40299</v>
       </c>
@@ -2136,7 +2220,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>41415.666666666664</v>
       </c>
@@ -2153,7 +2237,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>42144.666666666664</v>
       </c>
@@ -2168,6 +2252,17 @@
       </c>
       <c r="F8">
         <v>-205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>42516</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-160</v>
       </c>
     </row>
   </sheetData>
@@ -2176,16 +2271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -2273,16 +2368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -2370,14 +2465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2464,19 +2559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2550,12 +2645,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>37048.666666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>38497</v>
       </c>
@@ -2575,16 +2670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41740.458333333336</v>
       </c>
@@ -2699,19 +2794,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2785,12 +2880,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>35551</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>35945</v>
       </c>
@@ -2834,7 +2929,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>36308</v>
       </c>
@@ -2866,7 +2961,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>36680</v>
       </c>
@@ -2898,7 +2993,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>37040</v>
       </c>
@@ -2918,7 +3013,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>40327</v>
       </c>
@@ -2941,16 +3036,121 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>35222.666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>37048.666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1660D7-B1C3-4EEA-9C59-8771C133C152}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3226,37 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>37048.666666666664</v>
+        <v>39183.458333333336</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>2.1</v>
+      </c>
+      <c r="R2">
+        <v>3.1</v>
+      </c>
+      <c r="S2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U2">
+        <v>6.1</v>
+      </c>
+      <c r="V2">
+        <v>7.1</v>
+      </c>
+      <c r="W2">
+        <v>8.1</v>
+      </c>
+      <c r="X2">
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -3035,32 +3265,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -3435,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>11.3</v>
@@ -3470,36 +3700,58 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>41784.666666666664</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>38139</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-600</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>41784.666666666664</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>42125</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>600</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>42880</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>
@@ -3508,23 +3760,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>35909.832638888889</v>
       </c>
@@ -3645,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>36271.041666666664</v>
       </c>
@@ -3719,7 +3971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>37048.666666666664</v>
       </c>
@@ -3793,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>37394.5</v>
       </c>
@@ -3813,7 +4065,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>37751</v>
       </c>
@@ -3845,7 +4097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>38147.541666666664</v>
       </c>
@@ -3892,7 +4144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>38499.583333333336</v>
       </c>
@@ -3939,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>39268.791666666664</v>
       </c>
@@ -3956,7 +4208,7 @@
         <v>-1330</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>39270.5</v>
       </c>
@@ -4003,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>39814</v>
       </c>
@@ -4020,7 +4272,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>40298.958333333336</v>
       </c>
@@ -4037,7 +4289,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41784.832638888889</v>
       </c>
@@ -4052,6 +4304,23 @@
       </c>
       <c r="F13">
         <v>-505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>42512</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-800</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-300</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,23 +4339,23 @@
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="13" width="6.85546875" customWidth="1"/>
+    <col min="11" max="13" width="6.88671875" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>35198.458333333336</v>
       </c>
@@ -4204,7 +4473,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>35458.375</v>
       </c>
@@ -4212,7 +4481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>36288.791666666664</v>
       </c>
@@ -4244,7 +4513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>36289</v>
       </c>
@@ -4291,7 +4560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>36678</v>
       </c>
@@ -4353,7 +4622,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>37052.447916666664</v>
       </c>
@@ -4385,7 +4654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>37773</v>
       </c>
@@ -4411,7 +4680,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>38086.416666666664</v>
       </c>
@@ -4428,7 +4697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -4460,7 +4729,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4483,21 +4752,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>35554.958333333336</v>
       </c>
@@ -4627,7 +4896,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>36300.746527777781</v>
       </c>
@@ -4671,7 +4940,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>37050.541666666664</v>
       </c>
@@ -4715,7 +4984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>37771.819444444445</v>
       </c>
@@ -4747,7 +5016,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40087.625</v>
       </c>
@@ -4755,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-520</v>
+        <v>-470</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4764,64 +5033,75 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <v>40299.625</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>40678.625</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>9.1</v>
       </c>
-      <c r="P7">
-        <f>O7-1</f>
+      <c r="P8">
+        <f>O8-1</f>
         <v>8.1</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:X7" si="1">P7-1</f>
+      <c r="Q8">
+        <f t="shared" ref="Q8:X8" si="1">P8-1</f>
         <v>7.1</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>6.1</v>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f t="shared" si="1"/>
         <v>3.0999999999999996</v>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f t="shared" si="1"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>42139.625</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f>-50</f>
         <v>-50</v>
       </c>
@@ -4833,21 +5113,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4921,7 +5201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>34832.666666666664</v>
       </c>
@@ -4965,7 +5245,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>35563.666666666664</v>
       </c>
@@ -5009,7 +5289,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>36293.666666666664</v>
       </c>
@@ -5041,7 +5321,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>37773.791666666664</v>
       </c>
@@ -5067,7 +5347,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>37775.666666666664</v>
       </c>
@@ -5084,7 +5364,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>38497.020833333336</v>
       </c>
@@ -5142,7 +5422,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>38833.020833333336</v>
       </c>
@@ -5159,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>39923.666666666664</v>
       </c>
@@ -5176,7 +5456,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40695.916666666664</v>
       </c>
@@ -5191,6 +5471,28 @@
       </c>
       <c r="F10">
         <v>-158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>41790</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>42019</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-350</v>
       </c>
     </row>
   </sheetData>
@@ -5199,26 +5501,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
     <col min="9" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5292,7 +5594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>35542.541666666664</v>
       </c>
@@ -5327,7 +5629,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>36272.541666666664</v>
       </c>
@@ -5359,7 +5661,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>37016.840277777781</v>
       </c>
@@ -5391,7 +5693,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>37742.541666666664</v>
       </c>
@@ -5450,7 +5752,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>38498.833333333336</v>
       </c>
@@ -5519,7 +5821,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>39277.041666666664</v>
       </c>
@@ -5536,7 +5838,7 @@
         <v>-340</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>39949.75</v>
       </c>
@@ -5553,7 +5855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>41784.833333333336</v>
       </c>
@@ -5568,6 +5870,23 @@
       </c>
       <c r="F9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>42878</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-230</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-230</v>
       </c>
     </row>
   </sheetData>
@@ -5576,31 +5895,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
     <col min="13" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="17" width="8.140625" customWidth="1"/>
+    <col min="16" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5674,7 +5993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>34839.8125</v>
       </c>
@@ -5709,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>35570.8125</v>
       </c>
@@ -5744,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>36300.8125</v>
       </c>
@@ -5776,7 +6095,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>37050.78125</v>
       </c>
@@ -5820,9 +6139,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>37771.8125</v>
+        <v>37774.8125</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -5848,7 +6167,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>38276.708333333336</v>
       </c>
@@ -5856,13 +6175,30 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-290</v>
+        <v>-350</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-290</v>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>42153</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-50</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
